--- a/EXCEL-EXERCISES.xlsx
+++ b/EXCEL-EXERCISES.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_D1C86C34E3297946997F9CBB958161795467F900" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E41540-4D97-4F22-84B7-E5B48B507C07}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8010" tabRatio="646" firstSheet="14" activeTab="13"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8010" tabRatio="646" firstSheet="13" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,13 +33,27 @@
     <sheet name="Sheet23" sheetId="50" r:id="rId23"/>
     <sheet name="Sheet24" sheetId="51" r:id="rId24"/>
     <sheet name="Sheet25" sheetId="52" r:id="rId25"/>
+    <sheet name="Sheet26" sheetId="53" r:id="rId26"/>
+    <sheet name="Sheet27" sheetId="54" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="196">
   <si>
     <t>remove all leading spaces and trailing spaces</t>
   </si>
@@ -46,133 +61,163 @@
     <t>War is    comming.</t>
   </si>
   <si>
+    <t>answear:</t>
+  </si>
+  <si>
     <t>Ok.      Bro      heh</t>
   </si>
   <si>
-    <t>answear:</t>
+    <t>TRIM()</t>
+  </si>
+  <si>
+    <t>in all empty cells put word "WTF"</t>
   </si>
   <si>
     <t xml:space="preserve">     War is    comming.</t>
   </si>
   <si>
-    <t>TRIM()</t>
-  </si>
-  <si>
-    <t>in all empty cells put word "WTF"</t>
+    <t>select data &gt; F5 &gt; specials &gt; blanks &gt; Enter &gt; select one empty cell &gt; write &gt; WTF</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>select data &gt; F5 &gt; specials &gt; blanks &gt; Enter &gt; select one empty cell &gt; write &gt; WTF</t>
+    <t>convert all data to number</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
+    <t>hint:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiply all elements in place by one. </t>
+  </si>
+  <si>
+    <t>Copy 1 and paste it into all data using paste special. In this window chose multiply and click OK.</t>
+  </si>
+  <si>
+    <t>remove all copies of students</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>select data &gt; DATA &gt; Remove duplicates</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Deadpooop</t>
+  </si>
+  <si>
+    <t>all cells with errors highlight with red color</t>
+  </si>
+  <si>
+    <t>New formating Rule or F5</t>
+  </si>
+  <si>
+    <t>select data &gt; F5 &gt; Special &gt; Formulas &gt; mark only error &gt; OK.. Now you can change all cells to red</t>
+  </si>
+  <si>
+    <t>breake those adresses based on name age and place</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>Dan TAN, 29, New York</t>
+  </si>
+  <si>
+    <t>text to column</t>
+  </si>
+  <si>
+    <t>select adress &gt; DATA &gt; TEXT TO COLUMN &gt; DELIMITER &gt; NEXT &gt; COMMA &gt; NEXT &gt; select destination &gt; FINISH</t>
+  </si>
+  <si>
+    <t>Mike tys, 55, Budapest</t>
+  </si>
+  <si>
+    <t>MIKE BOYY, 21, Kraków</t>
+  </si>
+  <si>
+    <t>John bil, 93, Rio</t>
+  </si>
+  <si>
+    <t>Ricardo MILOS, 23, Sexoland</t>
+  </si>
+  <si>
+    <t>John for, 45, Minsk</t>
+  </si>
+  <si>
+    <t>francis ohhh, 23, Los Ang</t>
+  </si>
+  <si>
+    <t>Deadpooop, 55, Brukly</t>
+  </si>
+  <si>
+    <t>mike FUNNY, 34, Texas</t>
+  </si>
+  <si>
+    <t>fix all wrongly typed words</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>convert all data to number</t>
-  </si>
-  <si>
-    <t>Copy 1 and paste it into all data using paste special. In this window chose multiply and click OK.</t>
-  </si>
-  <si>
-    <t>hint:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiply all elements in place by one. </t>
-  </si>
-  <si>
-    <t>students</t>
-  </si>
-  <si>
-    <t>marks</t>
-  </si>
-  <si>
-    <t>remove all copies of students</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>Deadpooop</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>select data &gt; DATA &gt; Remove duplicates</t>
-  </si>
-  <si>
-    <t>all cells with errors highlight with red color</t>
-  </si>
-  <si>
-    <t>New formating Rule or F5</t>
-  </si>
-  <si>
-    <t>select data &gt; F5 &gt; Special &gt; Formulas &gt; mark only error &gt; OK.. Now you can change all cells to red</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Dan TAN, 29, New York</t>
-  </si>
-  <si>
-    <t>Mike tys, 55, Budapest</t>
-  </si>
-  <si>
-    <t>MIKE BOYY, 21, Kraków</t>
-  </si>
-  <si>
-    <t>John bil, 93, Rio</t>
-  </si>
-  <si>
-    <t>Ricardo MILOS, 23, Sexoland</t>
-  </si>
-  <si>
-    <t>John for, 45, Minsk</t>
-  </si>
-  <si>
-    <t>francis ohhh, 23, Los Ang</t>
-  </si>
-  <si>
-    <t>mike FUNNY, 34, Texas</t>
-  </si>
-  <si>
-    <t>Deadpooop, 55, Brukly</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>breake those adresses based on name age and place</t>
-  </si>
-  <si>
-    <t>text to column</t>
-  </si>
-  <si>
-    <t>select adress &gt; DATA &gt; TEXT TO COLUMN &gt; DELIMITER &gt; NEXT &gt; COMMA &gt; NEXT &gt; select destination &gt; FINISH</t>
+    <t>dogg</t>
+  </si>
+  <si>
+    <t>spell check</t>
+  </si>
+  <si>
+    <t>select data &gt; F7 &gt; change</t>
+  </si>
+  <si>
+    <t>caat</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>moan</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>fishh</t>
   </si>
   <si>
     <t>juice</t>
@@ -181,39 +226,9 @@
     <t>water</t>
   </si>
   <si>
-    <t>dogg</t>
-  </si>
-  <si>
-    <t>boy</t>
-  </si>
-  <si>
-    <t>caat</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>moan</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>fishh</t>
-  </si>
-  <si>
     <t>woter</t>
   </si>
   <si>
-    <t>spell check</t>
-  </si>
-  <si>
-    <t>select data &gt; F7 &gt; change</t>
-  </si>
-  <si>
-    <t>fix all wrongly typed words</t>
-  </si>
-  <si>
     <t>remove all formating from data</t>
   </si>
   <si>
@@ -265,51 +280,57 @@
     <t>NA</t>
   </si>
   <si>
+    <t>select Data &gt; DATA &gt; filter &gt; NA</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
     <t>OP</t>
   </si>
   <si>
-    <t>select Data &gt; DATA &gt; filter &gt; NA</t>
+    <t>get 2 first letters of data column and put them into prefix column</t>
+  </si>
+  <si>
+    <t>prefix</t>
   </si>
   <si>
     <t>FD23054</t>
   </si>
   <si>
+    <t>…………..=LEFT()</t>
+  </si>
+  <si>
+    <t>FC21024</t>
+  </si>
+  <si>
+    <t>FC21054</t>
+  </si>
+  <si>
+    <t>WD21054</t>
+  </si>
+  <si>
     <t>FD26054</t>
   </si>
   <si>
-    <t>FC21024</t>
-  </si>
-  <si>
-    <t>FC21054</t>
-  </si>
-  <si>
-    <t>WD21054</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>get 2 first letters of data column and put them into prefix column</t>
-  </si>
-  <si>
-    <t>…………..=LEFT()</t>
-  </si>
-  <si>
     <t>remove duplicates</t>
   </si>
   <si>
+    <t>DATA2</t>
+  </si>
+  <si>
     <t>DATA &gt; remove duplicates</t>
   </si>
   <si>
-    <t>DATA2</t>
+    <t>get all numbers inside DATA</t>
   </si>
   <si>
     <t>FD23054W</t>
   </si>
   <si>
+    <t>…………..=MID(A4,3,4)</t>
+  </si>
+  <si>
     <t>FD23054E</t>
   </si>
   <si>
@@ -322,48 +343,48 @@
     <t>FC21054E</t>
   </si>
   <si>
+    <t>WD21054E</t>
+  </si>
+  <si>
     <t>FD26054W</t>
   </si>
   <si>
-    <t>WD21054E</t>
-  </si>
-  <si>
-    <t>get all numbers inside DATA</t>
-  </si>
-  <si>
-    <t>…………..=MID(A4,3,4)</t>
-  </si>
-  <si>
     <t>conbine all strings from cells into one</t>
   </si>
   <si>
+    <t>DATA1</t>
+  </si>
+  <si>
+    <t>DATA3</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>…………..=CONCATENATE()</t>
   </si>
   <si>
-    <t>DATA1</t>
-  </si>
-  <si>
-    <t>DATA3</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>combined</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
+    <t>lets say excel spreadsheet is huge and all you need, is age of a person. Get age of Ricardo Milos</t>
+  </si>
+  <si>
     <t>Dan TAN</t>
   </si>
   <si>
     <t xml:space="preserve"> New York</t>
   </si>
   <si>
+    <t>…………..= VLOOKUP()</t>
+  </si>
+  <si>
     <t>Mike tys</t>
   </si>
   <si>
@@ -409,12 +430,6 @@
     <t xml:space="preserve"> Texas</t>
   </si>
   <si>
-    <t>lets say excel spreadsheet is huge and all you need, is age of a person. Get age of Ricardo Milos</t>
-  </si>
-  <si>
-    <t>…………..= VLOOKUP()</t>
-  </si>
-  <si>
     <t>use flash fill to create all emails at once</t>
   </si>
   <si>
@@ -424,70 +439,73 @@
     <t>DanTAN</t>
   </si>
   <si>
+    <t>DanTAN29.gmail.com</t>
+  </si>
+  <si>
+    <t>flash fill</t>
+  </si>
+  <si>
+    <t>after writing 1email and starting to write 2nd the excel should automaticly know what to do and all you have to do is to press enter. Available only in newer versions of excel.</t>
+  </si>
+  <si>
     <t>Miketys</t>
   </si>
   <si>
     <t>MIKEBOYY</t>
   </si>
   <si>
-    <t>DanTAN29.gmail.com</t>
-  </si>
-  <si>
-    <t>flash fill</t>
-  </si>
-  <si>
-    <t>after writing 1email and starting to write 2nd the excel should automaticly know what to do and all you have to do is to press enter. Available only in newer versions of excel.</t>
-  </si>
-  <si>
     <t>sort by name and than by age</t>
   </si>
   <si>
+    <t>big sort</t>
+  </si>
+  <si>
+    <t>click on one cell in data &gt; DATA &gt; BIG SORT &gt; ADD LEVEL &gt; OK.</t>
+  </si>
+  <si>
     <t>Kacper Steczniewski</t>
   </si>
   <si>
+    <t>Zelandia</t>
+  </si>
+  <si>
     <t>dominik kowalski</t>
   </si>
   <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
     <t>michal chalys</t>
   </si>
   <si>
+    <t>Budapest</t>
+  </si>
+  <si>
     <t>adam wonsik</t>
   </si>
   <si>
+    <t>China</t>
+  </si>
+  <si>
     <t>alan majonez</t>
   </si>
   <si>
+    <t>xxx</t>
+  </si>
+  <si>
     <t>karol swiderski</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
     <t>mikolaj guy</t>
   </si>
   <si>
-    <t>Zelandia</t>
-  </si>
-  <si>
-    <t>Warsaw</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>Toyota</t>
   </si>
   <si>
-    <t>big sort</t>
-  </si>
-  <si>
-    <t>click on one cell in data &gt; DATA &gt; BIG SORT &gt; ADD LEVEL &gt; OK.</t>
+    <t>sort data by time starting from Monday ending on Sunday</t>
   </si>
   <si>
     <t>time</t>
@@ -496,24 +514,21 @@
     <t>Friday</t>
   </si>
   <si>
+    <t>click on one cell in data &gt; DATA &gt; BIG SORT &gt;  ORDER &gt; CUSTOM &gt; chose or write new one &gt; OK.</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>click on one cell in data &gt; DATA &gt; BIG SORT &gt;  ORDER &gt; CUSTOM &gt; chose or write new one &gt; OK.</t>
-  </si>
-  <si>
-    <t>sort data by time starting from Monday ending on Sunday</t>
-  </si>
-  <si>
     <t>Find the lest expensive item</t>
   </si>
   <si>
@@ -526,24 +541,24 @@
     <t>GD13054W</t>
   </si>
   <si>
+    <t>SP11024V</t>
+  </si>
+  <si>
+    <t>FD23004V</t>
+  </si>
+  <si>
     <t>GE21054E</t>
   </si>
   <si>
-    <t>SP11024V</t>
+    <t>LEAST EXPENSIVE ITEM</t>
+  </si>
+  <si>
+    <t>WP21154E</t>
   </si>
   <si>
     <t>FD16054W</t>
   </si>
   <si>
-    <t>WP21154E</t>
-  </si>
-  <si>
-    <t>FD23004V</t>
-  </si>
-  <si>
-    <t>LEAST EXPENSIVE ITEM</t>
-  </si>
-  <si>
     <t>pick random number from this list [1,2,3]</t>
   </si>
   <si>
@@ -563,12 +578,75 @@
   </si>
   <si>
     <t>mark your data &gt; DATA &gt; DATA VALIDATION &gt; TEXT LENGTH &gt; BETWEEN &gt; 9 &gt; 12 &gt; add input message and error alert &gt; OK.</t>
+  </si>
+  <si>
+    <t>count how many times word "Excel" has appeared in data below</t>
+  </si>
+  <si>
+    <t>super hard</t>
+  </si>
+  <si>
+    <t>Excel is super popular.</t>
+  </si>
+  <si>
+    <t>………..=SUMPRODUCT(LEN(A5:A10)-LEN(SUBSTITUTE(A5:A10,D8,"")))/LEN(D8)</t>
+  </si>
+  <si>
+    <t>Up to 4 Bilion formulas can depend on single Excel cell</t>
+  </si>
+  <si>
+    <t>Excel is amazing</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>word to count</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Count of this word</t>
+  </si>
+  <si>
+    <t>99,9993 Excel</t>
+  </si>
+  <si>
+    <t>Extract middle name from Name colum</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Daniel Olivier Johnson</t>
+  </si>
+  <si>
+    <t>………..=TEXTBEFORE(TEXTAFTER(A5," ")," ")</t>
+  </si>
+  <si>
+    <t>Miketys Oscar Williams</t>
+  </si>
+  <si>
+    <t>John Bil Garcia</t>
+  </si>
+  <si>
+    <t>John Edward Jones</t>
+  </si>
+  <si>
+    <t>Mason Lucas Lopez</t>
+  </si>
+  <si>
+    <t>Ellis Louis Anderson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -592,7 +670,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +737,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -900,6 +996,86 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,19 +1091,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -935,7 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -948,34 +1118,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1013,9 +1197,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,9 +1231,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,9 +1283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1256,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -1272,17 +1492,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -1290,16 +1510,16 @@
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1312,9 +1532,9 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Arkusz10"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1328,40 +1548,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="26">
+      <c r="A3" s="21">
         <v>0.4</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="21">
         <v>0.56000000000000005</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="26">
+      <c r="A4" s="21">
         <v>0.7</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="21">
         <v>0.49</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1371,52 +1591,32 @@
         <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26">
+      <c r="A5" s="21">
         <v>0.88</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="21">
         <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="26">
+      <c r="A6" s="21">
         <v>0.66</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="21">
         <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="27">
+      <c r="A7" s="21">
         <v>0.67</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="21">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1428,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Arkusz11"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -1446,42 +1646,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="14"/>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>10</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
@@ -1489,75 +1684,51 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>60</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>67</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>28</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>58</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>92</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>55</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>46</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>35</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>67</v>
       </c>
     </row>
@@ -1571,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Arkusz12"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -1589,64 +1760,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="15">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12">
         <v>21</v>
       </c>
       <c r="C4" s="5">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="16">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13">
         <v>12</v>
       </c>
       <c r="C5" s="2">
@@ -1655,9 +1826,9 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="16">
+        <v>21</v>
+      </c>
+      <c r="B6" s="13">
         <v>23</v>
       </c>
       <c r="C6" s="2">
@@ -1666,9 +1837,9 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="16">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13">
         <v>23</v>
       </c>
       <c r="C7" s="2">
@@ -1676,10 +1847,10 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13">
         <v>68</v>
       </c>
       <c r="C8" s="2">
@@ -1687,10 +1858,10 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13">
         <v>32</v>
       </c>
       <c r="C9" s="2">
@@ -1698,10 +1869,10 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="13">
         <v>37</v>
       </c>
       <c r="C10" s="2">
@@ -1709,10 +1880,10 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13">
         <v>57</v>
       </c>
       <c r="C11" s="2">
@@ -1720,10 +1891,10 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="13">
         <v>12</v>
       </c>
       <c r="C12" s="2">
@@ -1740,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Arkusz13"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -1756,87 +1927,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="15">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12">
         <v>21</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="16">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13">
         <v>12</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="13">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="16">
+        <v>21</v>
+      </c>
+      <c r="B6" s="13">
         <v>23</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1845,54 +2016,54 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="16">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13">
         <v>23</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13">
+        <v>68</v>
+      </c>
+      <c r="C8" s="13">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17">
-        <v>68</v>
-      </c>
-      <c r="C8" s="16">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>32</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="13">
         <v>37</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="13">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1900,31 +2071,31 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13">
         <v>57</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="13">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="17">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1937,11 +2108,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Arkusz14"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1954,122 +2125,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>79</v>
+      <c r="A13" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B13" s="2"/>
     </row>
@@ -2083,7 +2234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Arkusz15"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -2100,140 +2251,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>79</v>
+      <c r="A13" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
@@ -2249,7 +2380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Arkusz16"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -2266,122 +2397,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>94</v>
+      <c r="A13" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B13" s="2"/>
     </row>
@@ -2395,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Arkusz17"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -2412,44 +2523,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2460,19 +2569,17 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
       <c r="H4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2486,8 +2593,6 @@
         <v>105</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
@@ -2497,11 +2602,9 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -2514,8 +2617,6 @@
         <v>105</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
@@ -2525,11 +2626,9 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
@@ -2541,9 +2640,7 @@
       <c r="C9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
@@ -2553,11 +2650,9 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
@@ -2569,9 +2664,7 @@
       <c r="C11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
@@ -2581,11 +2674,9 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
@@ -2609,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Arkusz18"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -2627,158 +2718,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>40</v>
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5">
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2">
         <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>114</v>
+      <c r="A8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="2">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>116</v>
+      <c r="A9" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B9" s="2">
         <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>118</v>
+      <c r="A10" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>121</v>
+      <c r="A12" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="C15" s="30" t="s">
-        <v>39</v>
+      <c r="C15" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="C16" s="30" t="s">
-        <v>40</v>
+      <c r="C16" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -2792,12 +2883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Arkusz19"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2811,40 +2902,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2854,115 +2945,115 @@
       <c r="B4" s="5">
         <v>29</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>107</v>
+      <c r="C4" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>109</v>
+      <c r="C5" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>111</v>
+      <c r="C6" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2">
         <v>93</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>113</v>
+      <c r="C7" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>114</v>
+      <c r="A8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="2">
         <v>23</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>115</v>
+      <c r="C8" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>116</v>
+      <c r="A9" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B9" s="2">
         <v>45</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>117</v>
+      <c r="C9" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>118</v>
+      <c r="A10" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>119</v>
+      <c r="C10" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>55</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>120</v>
+      <c r="C11" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>121</v>
+      <c r="A12" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="2">
         <v>34</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>122</v>
+      <c r="C12" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -2976,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -2991,37 +3082,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3052,7 +3143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Arkusz20"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -3071,37 +3162,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3112,181 +3203,181 @@
         <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2">
         <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>114</v>
+      <c r="A8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="2">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>116</v>
+      <c r="A9" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B9" s="2">
         <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>118</v>
+      <c r="A10" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>121</v>
+      <c r="A12" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2">
         <v>40</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="8">
-        <v>51</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="8">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B16" s="2">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="8">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="B17" s="2">
         <v>39</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2">
         <v>25</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>146</v>
+      <c r="C18" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="2">
         <v>21</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>147</v>
+      <c r="C19" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Arkusz21"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -3318,258 +3409,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>150</v>
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5">
         <v>55</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>151</v>
+        <v>111</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2">
         <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>114</v>
+      <c r="A7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B7" s="2">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>153</v>
+        <v>117</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>116</v>
+      <c r="A8" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B8" s="2">
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>118</v>
+      <c r="A9" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B9" s="2">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
+      <c r="A10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="2">
         <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>151</v>
+        <v>122</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>121</v>
+      <c r="A11" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B11" s="2">
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>153</v>
+        <v>124</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="2">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D14" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="2">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="2">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="8">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="34" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="8">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="8">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="8">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="8">
-        <v>25</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="2">
         <v>21</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3581,14 +3672,14 @@
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>152</v>
+        <v>108</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D19">
     <sortCondition ref="D4"/>
   </sortState>
   <mergeCells count="1">
@@ -3600,7 +3691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Arkusz22"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -3618,30 +3709,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3651,97 +3740,81 @@
       <c r="B4" s="5">
         <v>1.2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2">
         <v>3.4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2">
         <v>0.9</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2">
         <v>7.2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="B13" s="2">
         <v>4.2</v>
@@ -3757,35 +3830,33 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Arkusz23"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.875" customWidth="1"/>
-    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3796,7 +3867,7 @@
         <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Arkusz24"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -3821,27 +3892,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="30" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1"/>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="39" t="s">
-        <v>10</v>
+      <c r="A4" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="37">
+      <c r="A5" s="31">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3851,31 +3922,31 @@
         <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="37">
+      <c r="A6" s="31">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="37">
+      <c r="A7" s="31">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="37">
+      <c r="A8" s="31">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="37">
+      <c r="A9" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="38">
+      <c r="A10" s="32">
         <v>60</v>
       </c>
     </row>
@@ -3886,12 +3957,12 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Arkusz25"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3905,37 +3976,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>173</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3947,18 +4018,18 @@
       </c>
       <c r="C4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2">
         <v>55</v>
@@ -3967,7 +4038,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2">
         <v>21</v>
@@ -3976,7 +4047,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2">
         <v>93</v>
@@ -3984,8 +4055,8 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>114</v>
+      <c r="A8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="2">
         <v>23</v>
@@ -3993,8 +4064,8 @@
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>116</v>
+      <c r="A9" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B9" s="2">
         <v>45</v>
@@ -4002,8 +4073,8 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>118</v>
+      <c r="A10" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="B10" s="2">
         <v>23</v>
@@ -4011,8 +4082,8 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>55</v>
@@ -4020,8 +4091,8 @@
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>121</v>
+      <c r="A12" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="2">
         <v>34</v>
@@ -4029,67 +4100,67 @@
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2">
         <v>40</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="2">
         <v>51</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2">
         <v>34</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="2">
         <v>36</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="2">
         <v>39</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2">
         <v>25</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="2">
         <v>21</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4100,8 +4171,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305066D0-7FFC-4EB8-A1E6-30EAAED6C819}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAD7F0F-E0C2-4672-9E02-1765E46ED5F4}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
+      <c r="A4" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="38"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="38"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -4116,28 +4387,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4146,13 +4417,13 @@
       </c>
       <c r="B4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4174,12 +4445,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4189,53 +4460,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>12</v>
@@ -4243,7 +4514,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>23</v>
@@ -4251,49 +4522,49 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="B9" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
         <v>12</v>
       </c>
     </row>
@@ -4307,9 +4578,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Arkusz5"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -4322,49 +4593,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="e">
-        <f>P</f>
+        <f ca="1">P</f>
         <v>#NAME?</v>
       </c>
       <c r="B4" s="5">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4375,34 +4646,6 @@
       <c r="B5" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4414,7 +4657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Arkusz6"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -4429,59 +4672,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1"/>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>40</v>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4489,7 +4732,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4497,49 +4740,49 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="8"/>
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8"/>
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
@@ -4553,7 +4796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Arkusz7"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -4568,116 +4811,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="A1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="A3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="14"/>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>54</v>
+      <c r="A13" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Arkusz8"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -4707,38 +4921,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="18"/>
+      <c r="A3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
@@ -4746,76 +4959,52 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="16" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickTop="1">
-      <c r="A9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="19" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>54</v>
+      <c r="A13" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4828,7 +5017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Arkusz9"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -4845,42 +5034,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="14"/>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>63</v>
       </c>
@@ -4888,75 +5072,51 @@
         <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
     </row>

--- a/EXCEL-EXERCISES.xlsx
+++ b/EXCEL-EXERCISES.xlsx
@@ -1,50 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="763" firstSheet="23" activeTab="35"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Sheet13" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Sheet14" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Sheet15" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Sheet16" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Sheet17" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Sheet18" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Sheet19" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Sheet20" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Sheet21" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Sheet22" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Sheet23" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Sheet24" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Sheet25" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Sheet26" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Sheet27" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="Sheet28" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="Sheet29" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Sheet30" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="Sheet31" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="Sheet32" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="Sheet33" sheetId="33" state="visible" r:id="rId34"/>
-    <sheet name="Sheet34" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="Sheet34_2" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
+    <sheet name="Sheet35" sheetId="35" r:id="rId35"/>
+    <sheet name="Sheet36" sheetId="36" r:id="rId36"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -54,369 +54,369 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="213">
-  <si>
-    <t xml:space="preserve">remove all leading spaces and trailing spaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War is    comming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">answear:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ok.      Bro      heh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIM()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in all empty cells put word "WTF"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="217">
+  <si>
+    <t>remove all leading spaces and trailing spaces</t>
+  </si>
+  <si>
+    <t>War is    comming.</t>
+  </si>
+  <si>
+    <t>answear:</t>
+  </si>
+  <si>
+    <t>Ok.      Bro      heh</t>
+  </si>
+  <si>
+    <t>TRIM()</t>
+  </si>
+  <si>
+    <t>in all empty cells put word "WTF"</t>
   </si>
   <si>
     <t xml:space="preserve">     War is    comming.</t>
   </si>
   <si>
-    <t xml:space="preserve">select data &gt; F5 &gt; specials &gt; blanks &gt; Enter &gt; select one empty cell &gt; write &gt; WTF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convert all data to number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint:</t>
+    <t>select data &gt; F5 &gt; specials &gt; blanks &gt; Enter &gt; select one empty cell &gt; write &gt; WTF</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>convert all data to number</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>hint:</t>
   </si>
   <si>
     <t xml:space="preserve">multiply all elements in place by one. </t>
   </si>
   <si>
-    <t xml:space="preserve">Copy 1 and paste it into all data using paste special. In this window chose multiply and click OK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove all copies of students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select data &gt; DATA &gt; Remove duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadpooop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all cells with errors highlight with red color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New formating Rule or F5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select data &gt; F5 &gt; Special &gt; Formulas &gt; mark only error &gt; OK.. Now you can change all cells to red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breake those adresses based on name age and place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan TAN, 29, New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text to column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select adress &gt; DATA &gt; TEXT TO COLUMN &gt; DELIMITER &gt; NEXT &gt; COMMA &gt; NEXT &gt; select destination &gt; FINISH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike tys, 55, Budapest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIKE BOYY, 21, Kraków</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John bil, 93, Rio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo MILOS, 23, Sexoland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John for, 45, Minsk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">francis ohhh, 23, Los Ang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadpooop, 55, Brukly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mike FUNNY, 34, Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fix all wrongly typed words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dogg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spell check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select data &gt; F7 &gt; change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fishh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">woter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove all formating from data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home &gt; clear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select data &gt; home &gt; clear &gt;formating</t>
+    <t>Copy 1 and paste it into all data using paste special. In this window chose multiply and click OK.</t>
+  </si>
+  <si>
+    <t>remove all copies of students</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>select data &gt; DATA &gt; Remove duplicates</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Deadpooop</t>
+  </si>
+  <si>
+    <t>all cells with errors highlight with red color</t>
+  </si>
+  <si>
+    <t>New formating Rule or F5</t>
+  </si>
+  <si>
+    <t>select data &gt; F5 &gt; Special &gt; Formulas &gt; mark only error &gt; OK.. Now you can change all cells to red</t>
+  </si>
+  <si>
+    <t>breake those adresses based on name age and place</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>Dan TAN, 29, New York</t>
+  </si>
+  <si>
+    <t>text to column</t>
+  </si>
+  <si>
+    <t>select adress &gt; DATA &gt; TEXT TO COLUMN &gt; DELIMITER &gt; NEXT &gt; COMMA &gt; NEXT &gt; select destination &gt; FINISH</t>
+  </si>
+  <si>
+    <t>Mike tys, 55, Budapest</t>
+  </si>
+  <si>
+    <t>MIKE BOYY, 21, Kraków</t>
+  </si>
+  <si>
+    <t>John bil, 93, Rio</t>
+  </si>
+  <si>
+    <t>Ricardo MILOS, 23, Sexoland</t>
+  </si>
+  <si>
+    <t>John for, 45, Minsk</t>
+  </si>
+  <si>
+    <t>francis ohhh, 23, Los Ang</t>
+  </si>
+  <si>
+    <t>Deadpooop, 55, Brukly</t>
+  </si>
+  <si>
+    <t>mike FUNNY, 34, Texas</t>
+  </si>
+  <si>
+    <t>fix all wrongly typed words</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>dogg</t>
+  </si>
+  <si>
+    <t>spell check</t>
+  </si>
+  <si>
+    <t>select data &gt; F7 &gt; change</t>
+  </si>
+  <si>
+    <t>caat</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>moan</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>fishh</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>woter</t>
+  </si>
+  <si>
+    <t>remove all formating from data</t>
+  </si>
+  <si>
+    <t>home &gt; clear</t>
+  </si>
+  <si>
+    <t>select data &gt; home &gt; clear &gt;formating</t>
   </si>
   <si>
     <t xml:space="preserve">create colorful icon based on how high the number is </t>
   </si>
   <si>
-    <t xml:space="preserve">numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditional formating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home &gt; conditional formating &gt; icon sets &gt; trafic lights?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark cells where data is lower than 50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home &gt; conditional formating &gt; highlight cell rules &gt; less then &gt; 50% &gt; ok.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum only those numbers that are grather than 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">……..=SUMIF(range; "&gt;50")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sort this data by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select Data &gt; DATA &gt; sort &gt; by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter your data by NA country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select Data &gt; DATA &gt; filter &gt; NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get 2 first letters of data column and put them into prefix column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD23054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…………..=LEFT()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC21024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC21054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD21054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD26054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATA &gt; remove duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get all numbers inside DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD23054W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…………..=MID(A4,3,4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD23054E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC21024V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD23054V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC21054E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD21054E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD26054W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conbine all strings from cells into one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…………..=CONCATENATE()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lets say excel spreadsheet is huge and all you need, is age of a person. Get age of Ricardo Milos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan TAN</t>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>conditional formating</t>
+  </si>
+  <si>
+    <t>home &gt; conditional formating &gt; icon sets &gt; trafic lights?</t>
+  </si>
+  <si>
+    <t>mark cells where data is lower than 50%</t>
+  </si>
+  <si>
+    <t>home &gt; conditional formating &gt; highlight cell rules &gt; less then &gt; 50% &gt; ok.</t>
+  </si>
+  <si>
+    <t>sum only those numbers that are grather than 50</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>……..=SUMIF(range; "&gt;50")</t>
+  </si>
+  <si>
+    <t>sort this data by age</t>
+  </si>
+  <si>
+    <t>select Data &gt; DATA &gt; sort &gt; by age</t>
+  </si>
+  <si>
+    <t>filter your data by NA country</t>
+  </si>
+  <si>
+    <t>contry</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>select Data &gt; DATA &gt; filter &gt; NA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>get 2 first letters of data column and put them into prefix column</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>FD23054</t>
+  </si>
+  <si>
+    <t>…………..=LEFT()</t>
+  </si>
+  <si>
+    <t>FC21024</t>
+  </si>
+  <si>
+    <t>FC21054</t>
+  </si>
+  <si>
+    <t>WD21054</t>
+  </si>
+  <si>
+    <t>FD26054</t>
+  </si>
+  <si>
+    <t>remove duplicates</t>
+  </si>
+  <si>
+    <t>DATA2</t>
+  </si>
+  <si>
+    <t>DATA &gt; remove duplicates</t>
+  </si>
+  <si>
+    <t>get all numbers inside DATA</t>
+  </si>
+  <si>
+    <t>FD23054W</t>
+  </si>
+  <si>
+    <t>…………..=MID(A4,3,4)</t>
+  </si>
+  <si>
+    <t>FD23054E</t>
+  </si>
+  <si>
+    <t>FC21024V</t>
+  </si>
+  <si>
+    <t>FD23054V</t>
+  </si>
+  <si>
+    <t>FC21054E</t>
+  </si>
+  <si>
+    <t>WD21054E</t>
+  </si>
+  <si>
+    <t>FD26054W</t>
+  </si>
+  <si>
+    <t>conbine all strings from cells into one</t>
+  </si>
+  <si>
+    <t>DATA1</t>
+  </si>
+  <si>
+    <t>DATA3</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>…………..=CONCATENATE()</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>lets say excel spreadsheet is huge and all you need, is age of a person. Get age of Ricardo Milos</t>
+  </si>
+  <si>
+    <t>Dan TAN</t>
   </si>
   <si>
     <t xml:space="preserve"> New York</t>
   </si>
   <si>
-    <t xml:space="preserve">…………..= VLOOKUP()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike tys</t>
+    <t>…………..= VLOOKUP()</t>
+  </si>
+  <si>
+    <t>Mike tys</t>
   </si>
   <si>
     <t xml:space="preserve"> Budapest</t>
   </si>
   <si>
-    <t xml:space="preserve">MIKE BOYY</t>
+    <t>MIKE BOYY</t>
   </si>
   <si>
     <t xml:space="preserve"> Kraków</t>
   </si>
   <si>
-    <t xml:space="preserve">John bil</t>
+    <t>John bil</t>
   </si>
   <si>
     <t xml:space="preserve"> Rio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ricardo MILOS</t>
+    <t>Ricardo MILOS</t>
   </si>
   <si>
     <t xml:space="preserve"> Sexoland</t>
   </si>
   <si>
-    <t xml:space="preserve">John for</t>
+    <t>John for</t>
   </si>
   <si>
     <t xml:space="preserve"> Minsk</t>
   </si>
   <si>
-    <t xml:space="preserve">francis ohhh</t>
+    <t>francis ohhh</t>
   </si>
   <si>
     <t xml:space="preserve"> Los Ang</t>
@@ -425,286 +425,296 @@
     <t xml:space="preserve"> Brukly</t>
   </si>
   <si>
-    <t xml:space="preserve">mike FUNNY</t>
+    <t>mike FUNNY</t>
   </si>
   <si>
     <t xml:space="preserve"> Texas</t>
   </si>
   <si>
-    <t xml:space="preserve">use flash fill to create all emails at once</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DanTAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DanTAN29.gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flash fill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">after writing 1email and starting to write 2nd the excel should automaticly know what to do and all you have to do is to press enter. Available only in newer versions of excel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miketys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIKEBOYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sort by name and than by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big sort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click on one cell in data &gt; DATA &gt; BIG SORT &gt; ADD LEVEL &gt; OK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kacper Steczniewski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zelandia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dominik kowalski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warsaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">michal chalys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budapest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adam wonsik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alan majonez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">karol swiderski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mikolaj guy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toyota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sort data by time starting from Monday ending on Sunday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click on one cell in data &gt; DATA &gt; BIG SORT &gt;  ORDER &gt; CUSTOM &gt; chose or write new one &gt; OK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the lest expensive item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD13054W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP11024V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD23004V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE21054E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEAST EXPENSIVE ITEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP21154E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD16054W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pick random number from this list [1,2,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………..=CHOOSE(RANDBETWEEN(1,3);1;2;3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pick random number from data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………..=CHOOSE(RANDBETWEEN(1,6);A5;A6;A7;A8;A9;A10) #you can hold ctrl and press cells A5 A6…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do somethink so in phone column you can write minimum 9 characters and maximum 12 characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mark your data &gt; DATA &gt; DATA VALIDATION &gt; TEXT LENGTH &gt; BETWEEN &gt; 9 &gt; 12 &gt; add input message and error alert &gt; OK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count how many times word "Excel" has appeared in data below</t>
-  </si>
-  <si>
-    <t xml:space="preserve">super hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel is super popular.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………..=SUMPRODUCT(LEN(A5:A10)-LEN(SUBSTITUTE(A5:A10,D8,"")))/LEN(D8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Up to 4 Bilion formulas can depend on single Excel cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel is amazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word to count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of this word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99,9993 Excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extract middle name from Name colum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Olivier Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………..=TEXTBEFORE(TEXTAFTER(A5," ")," ")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miketys Oscar Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Bil Garcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Edward Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mason Lucas Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellis Louis Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter and unfilter this data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHORTCUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….CTRL + SHIFT + L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move column age to diffrent place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….SELECT &gt; DRAG &gt; HOLD DOWN SHIFT &gt; THEN DROP IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convert this data to table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….CTRL + T &gt; ENTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insert a new row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….select one cell in data &gt; CTRL + ‘+’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insert a new column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….select one cell in data &gt; CTRL + SPACE &gt; CTRL + ‘+’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove a row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….select cell &gt; CTRL + ‘-’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove a column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….select cell &gt; CTRL + SPACE &gt; CTRL + ‘-’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create total under marks column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">………….select cell below column &gt; CTRL + =</t>
+    <t>use flash fill to create all emails at once</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>DanTAN</t>
+  </si>
+  <si>
+    <t>DanTAN29.gmail.com</t>
+  </si>
+  <si>
+    <t>flash fill</t>
+  </si>
+  <si>
+    <t>after writing 1email and starting to write 2nd the excel should automaticly know what to do and all you have to do is to press enter. Available only in newer versions of excel.</t>
+  </si>
+  <si>
+    <t>Miketys</t>
+  </si>
+  <si>
+    <t>MIKEBOYY</t>
+  </si>
+  <si>
+    <t>sort by name and than by age</t>
+  </si>
+  <si>
+    <t>big sort</t>
+  </si>
+  <si>
+    <t>click on one cell in data &gt; DATA &gt; BIG SORT &gt; ADD LEVEL &gt; OK.</t>
+  </si>
+  <si>
+    <t>Kacper Steczniewski</t>
+  </si>
+  <si>
+    <t>Zelandia</t>
+  </si>
+  <si>
+    <t>dominik kowalski</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>michal chalys</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>adam wonsik</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>alan majonez</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>karol swiderski</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>mikolaj guy</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>sort data by time starting from Monday ending on Sunday</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>click on one cell in data &gt; DATA &gt; BIG SORT &gt;  ORDER &gt; CUSTOM &gt; chose or write new one &gt; OK.</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Find the lest expensive item</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>GD13054W</t>
+  </si>
+  <si>
+    <t>SP11024V</t>
+  </si>
+  <si>
+    <t>FD23004V</t>
+  </si>
+  <si>
+    <t>GE21054E</t>
+  </si>
+  <si>
+    <t>LEAST EXPENSIVE ITEM</t>
+  </si>
+  <si>
+    <t>WP21154E</t>
+  </si>
+  <si>
+    <t>FD16054W</t>
+  </si>
+  <si>
+    <t>pick random number from this list [1,2,3]</t>
+  </si>
+  <si>
+    <t>………..=CHOOSE(RANDBETWEEN(1,3);1;2;3)</t>
+  </si>
+  <si>
+    <t>pick random number from data</t>
+  </si>
+  <si>
+    <t>………..=CHOOSE(RANDBETWEEN(1,6);A5;A6;A7;A8;A9;A10) #you can hold ctrl and press cells A5 A6…</t>
+  </si>
+  <si>
+    <t>do somethink so in phone column you can write minimum 9 characters and maximum 12 characters.</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mark your data &gt; DATA &gt; DATA VALIDATION &gt; TEXT LENGTH &gt; BETWEEN &gt; 9 &gt; 12 &gt; add input message and error alert &gt; OK.</t>
+  </si>
+  <si>
+    <t>count how many times word "Excel" has appeared in data below</t>
+  </si>
+  <si>
+    <t>super hard</t>
+  </si>
+  <si>
+    <t>Excel is super popular.</t>
+  </si>
+  <si>
+    <t>………..=SUMPRODUCT(LEN(A5:A10)-LEN(SUBSTITUTE(A5:A10,D8,"")))/LEN(D8)</t>
+  </si>
+  <si>
+    <t>Up to 4 Bilion formulas can depend on single Excel cell</t>
+  </si>
+  <si>
+    <t>Excel is amazing</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>word to count</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Count of this word</t>
+  </si>
+  <si>
+    <t>99,9993 Excel</t>
+  </si>
+  <si>
+    <t>Extract middle name from Name colum</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Daniel Olivier Johnson</t>
+  </si>
+  <si>
+    <t>………..=TEXTBEFORE(TEXTAFTER(A5," ")," ")</t>
+  </si>
+  <si>
+    <t>Miketys Oscar Williams</t>
+  </si>
+  <si>
+    <t>John Bil Garcia</t>
+  </si>
+  <si>
+    <t>John Edward Jones</t>
+  </si>
+  <si>
+    <t>Mason Lucas Lopez</t>
+  </si>
+  <si>
+    <t>Ellis Louis Anderson</t>
+  </si>
+  <si>
+    <t>filter and unfilter this data</t>
+  </si>
+  <si>
+    <t>SHORTCUT</t>
+  </si>
+  <si>
+    <t>………….CTRL + SHIFT + L</t>
+  </si>
+  <si>
+    <t>move column age to diffrent place</t>
+  </si>
+  <si>
+    <t>………….SELECT &gt; DRAG &gt; HOLD DOWN SHIFT &gt; THEN DROP IT</t>
+  </si>
+  <si>
+    <t>convert this data to table</t>
+  </si>
+  <si>
+    <t>………….CTRL + T &gt; ENTER</t>
+  </si>
+  <si>
+    <t>insert a new row</t>
+  </si>
+  <si>
+    <t>………….select one cell in data &gt; CTRL + ‘+’</t>
+  </si>
+  <si>
+    <t>insert a new column</t>
+  </si>
+  <si>
+    <t>………….select one cell in data &gt; CTRL + SPACE &gt; CTRL + ‘+’</t>
+  </si>
+  <si>
+    <t>remove a row</t>
+  </si>
+  <si>
+    <t>………….select cell &gt; CTRL + ‘-’</t>
+  </si>
+  <si>
+    <t>remove a column</t>
+  </si>
+  <si>
+    <t>………….select cell &gt; CTRL + SPACE &gt; CTRL + ‘-’</t>
+  </si>
+  <si>
+    <t>create total under marks column</t>
+  </si>
+  <si>
+    <t>………….select cell below column &gt; CTRL + =</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>using shortcuts insert 5 new rows below 5th row</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>click on 5th row on the left &gt; hold SHIFT &gt; click corner of '5' and dragg down to 10th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="[$-415]YYYY\-MM\-DD"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-415]yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -713,29 +723,10 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
-      <family val="0"/>
       <charset val="238"/>
     </font>
     <font>
@@ -745,8 +736,15 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,315 +829,343 @@
         <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="18">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1198,32 +1224,320 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1550,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1258,37 +1572,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.61"/>
+    <col min="1" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1301,12 +1607,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="19">
         <v>0.4</v>
       </c>
-      <c r="B3" s="19" t="n">
-        <v>0.56</v>
+      <c r="B3" s="19">
+        <v>0.56000000000000005</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
@@ -1314,15 +1620,15 @@
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="19">
         <v>0.7</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="19">
         <v>0.49</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1331,31 +1637,31 @@
       <c r="E4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="19">
         <v>0.88</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="19">
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="19">
         <v>0.66</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="19">
         <v>0.86</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="19">
         <v>0.67</v>
       </c>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="19">
         <v>0.4</v>
       </c>
     </row>
@@ -1363,39 +1669,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1408,7 +1706,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
@@ -1419,12 +1717,12 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1433,52 +1731,52 @@
       <c r="G4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
         <v>67</v>
       </c>
     </row>
@@ -1486,39 +1784,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1531,8 +1821,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1548,18 +1837,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1568,95 +1857,95 @@
       <c r="H4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -1664,37 +1953,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="2.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="8" width="2.5" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1707,8 +1988,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1727,18 +2007,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="20">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1750,116 +2030,116 @@
       <c r="H4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="21">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="21">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="21">
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="21" t="n">
+      <c r="C8" s="21">
         <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="21">
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="21" t="n">
+      <c r="C10" s="21">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="21">
         <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="21">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1870,38 +2150,30 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1914,8 +2186,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1928,11 +2199,11 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
@@ -1943,59 +2214,59 @@
       <c r="G4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -2005,38 +2276,30 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -2049,8 +2312,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -2063,15 +2325,15 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2080,79 +2342,79 @@
       <c r="G4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
     </row>
@@ -2160,38 +2422,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -2204,8 +2457,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -2218,11 +2470,11 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>90</v>
       </c>
@@ -2233,59 +2485,59 @@
       <c r="G4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>97</v>
       </c>
@@ -2295,38 +2547,30 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="6.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.61"/>
+    <col min="1" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2341,8 +2585,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="5" t="s">
         <v>99</v>
       </c>
@@ -2361,15 +2604,15 @@
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2382,15 +2625,15 @@
       <c r="I4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2398,11 +2641,11 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2410,11 +2653,11 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2422,11 +2665,11 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2434,11 +2677,11 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2446,11 +2689,11 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2458,11 +2701,11 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2470,11 +2713,11 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2482,11 +2725,11 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2498,40 +2741,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -2544,8 +2779,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2561,15 +2795,15 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2581,99 +2815,99 @@
       <c r="G4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9">
       <c r="C15" s="24" t="s">
         <v>30</v>
       </c>
@@ -2681,7 +2915,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9">
       <c r="C16" s="24" t="s">
         <v>31</v>
       </c>
@@ -2691,40 +2925,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -2737,8 +2963,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="8" t="s">
         <v>30</v>
       </c>
@@ -2757,15 +2982,15 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>29</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -2780,15 +3005,15 @@
       <c r="G4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>55</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -2796,11 +3021,11 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -2808,11 +3033,11 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>93</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -2820,11 +3045,11 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>23</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -2832,11 +3057,11 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>45</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -2844,11 +3069,11 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>23</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -2856,11 +3081,11 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>55</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2868,11 +3093,11 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -2884,35 +3109,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2925,7 +3142,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2934,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -2942,24 +3159,24 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>23</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>661.64</v>
       </c>
       <c r="B7" s="2"/>
@@ -2968,40 +3185,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -3014,8 +3223,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -3031,15 +3239,15 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>29</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3051,169 +3259,169 @@
       <c r="G4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3224,40 +3432,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -3270,8 +3470,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -3290,15 +3489,15 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>55</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -3313,15 +3512,15 @@
       <c r="G4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3331,11 +3530,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3345,11 +3544,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3359,11 +3558,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3373,11 +3572,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3387,11 +3586,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3401,11 +3600,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3415,11 +3614,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3429,11 +3628,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3443,11 +3642,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3457,11 +3656,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3471,11 +3670,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3485,11 +3684,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3499,11 +3698,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3513,11 +3712,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3531,40 +3730,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -3577,102 +3768,101 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>1.2</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>7.2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>2.3</v>
+      <c r="B9" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>5.1</v>
+      <c r="B10" s="2">
+        <v>5.0999999999999996</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>1.9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>4.2</v>
       </c>
     </row>
@@ -3680,99 +3870,80 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.61"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4">
       <c r="A1" s="30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4">
       <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.61"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="31" t="s">
         <v>45</v>
       </c>
@@ -3782,12 +3953,12 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="32">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3796,70 +3967,62 @@
       <c r="E5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="32">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="32">
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="32">
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="32">
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="33">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -3872,8 +4035,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -3889,15 +4051,15 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>29</v>
       </c>
       <c r="C4" s="7"/>
@@ -3907,141 +4069,141 @@
       <c r="G4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>55</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>21</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>93</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>23</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>45</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>23</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>55</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>34</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>40</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>51</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>34</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>36</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>39</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>25</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>21</v>
       </c>
       <c r="C19" s="2"/>
@@ -4050,46 +4212,36 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.61"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="D3" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="35" t="s">
         <v>45</v>
       </c>
@@ -4099,11 +4251,11 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="32" t="s">
         <v>177</v>
       </c>
@@ -4113,21 +4265,21 @@
       <c r="E5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="32" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="A7" s="32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6">
       <c r="A8" s="32" t="s">
         <v>181</v>
       </c>
@@ -4138,7 +4290,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6">
       <c r="A9" s="32" t="s">
         <v>183</v>
       </c>
@@ -4147,47 +4299,39 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6">
       <c r="A10" s="33" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E59" activeCellId="0" sqref="E59"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.61"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="4.75" customWidth="1"/>
+    <col min="4" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="36" t="s">
         <v>187</v>
       </c>
@@ -4200,11 +4344,11 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
         <v>189</v>
       </c>
@@ -4215,92 +4359,84 @@
       <c r="E5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6">
       <c r="A6" s="21" t="s">
         <v>191</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>192</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6">
       <c r="A9" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
         <v>195</v>
       </c>
       <c r="B13" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
@@ -4313,8 +4449,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4330,18 +4465,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4350,95 +4485,95 @@
       <c r="H4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -4446,39 +4581,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -4491,8 +4618,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4508,18 +4634,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4528,95 +4654,95 @@
       <c r="H4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -4624,35 +4750,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4665,7 +4783,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4677,8 +4795,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>123</v>
       </c>
       <c r="B4" s="2"/>
@@ -4688,16 +4806,16 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>123</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -4705,39 +4823,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -4750,8 +4860,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4767,18 +4876,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4787,95 +4896,95 @@
       <c r="H4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -4883,39 +4992,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -4928,8 +5029,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4945,18 +5045,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4965,95 +5065,95 @@
       <c r="H4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5061,39 +5161,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
@@ -5106,8 +5198,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5123,18 +5214,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -5143,95 +5234,95 @@
       <c r="H4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5239,39 +5330,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
@@ -5284,8 +5367,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5301,18 +5383,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -5321,95 +5403,95 @@
       <c r="H4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5417,39 +5499,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
@@ -5462,8 +5536,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5479,18 +5552,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -5499,95 +5572,95 @@
       <c r="H4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5595,39 +5668,31 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.61"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>211</v>
       </c>
@@ -5640,8 +5705,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5657,18 +5721,18 @@
       <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="20">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -5677,95 +5741,95 @@
       <c r="H4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21" t="n">
+      <c r="B5" s="21">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21" t="n">
+      <c r="B6" s="21">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="21" t="n">
+      <c r="B7" s="21">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="n">
+      <c r="B8" s="21">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="21">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="21" t="n">
+      <c r="B10" s="21">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="21" t="n">
+      <c r="B11" s="21">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="n">
+      <c r="B12" s="21">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5773,35 +5837,315 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1">
+      <c r="A1" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="48">
+        <v>55</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="50">
+        <v>21</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="50">
+        <v>93</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="50">
+        <v>23</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="50">
+        <v>45</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="50">
+        <v>23</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="50">
+        <v>55</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="50">
+        <v>34</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="50">
+        <v>40</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="50">
+        <v>51</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="50">
+        <v>34</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="50">
+        <v>36</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="50">
+        <v>39</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="50">
+        <v>25</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="50">
+        <v>21</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="50">
+        <v>29</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5814,8 +6158,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5829,11 +6172,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -5842,71 +6185,71 @@
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>12</v>
       </c>
     </row>
@@ -5914,35 +6257,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5955,8 +6290,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5970,12 +6304,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="e">
-        <f aca="false">p</f>
+        <f>p</f>
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -5984,16 +6318,16 @@
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="e">
-        <f aca="false">1/0</f>
+        <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
     </row>
@@ -6001,35 +6335,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -6042,8 +6368,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6063,7 +6388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -6076,11 +6401,11 @@
       <c r="G4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -6088,7 +6413,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -6096,7 +6421,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -6104,7 +6429,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -6112,7 +6437,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -6120,7 +6445,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -6128,7 +6453,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -6136,7 +6461,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -6148,35 +6473,27 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6189,7 +6506,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
@@ -6201,7 +6518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -6211,51 +6528,51 @@
       <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -6264,37 +6581,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.61"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -6307,7 +6616,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
@@ -6318,11 +6627,11 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
@@ -6332,51 +6641,51 @@
       <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -6385,38 +6694,30 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.61"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -6429,7 +6730,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
@@ -6440,12 +6741,12 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -6454,52 +6755,52 @@
       <c r="G4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
     </row>
@@ -6507,12 +6808,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>